--- a/biology/Médecine/Anti-androgène/Anti-androgène.xlsx
+++ b/biology/Médecine/Anti-androgène/Anti-androgène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anti-androg%C3%A8ne</t>
+          <t>Anti-androgène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anti-androgènes sont des molécules diminuant l'activité des hormones androgènes telles que la testostérone ou l'androstanolone (DHT). Ils agissent en bloquant les récepteurs aux androgènes et/ou en diminuant ou arrêtant la synthèse des androgènes. Ils s'opposent aux agonistes des récepteurs aux androgènes que sont les androgènes proprement dites, les stéroïdes anabolisants, ou bien les modulateurs sélectifs des récepteurs aux androgènes comme l'enobosarm (en).
 Les anti-androgènes sont indiqués comme traitement dans différentes affections liées aux hormones androgéniques. Chez l'homme, ils sont utilisés dans le traitement de certains cancers de la prostate ou de l'hypertrophie bénigne de la prostate, de l'alopécie androgénétique, de paraphilies ou d'hypersexualité nécessitant un traitement médicamenteux, des cas de puberté précoce, ou lors du recours à une castration chimique. Chez la femme, les anti-androgènes sont utilisés pour traiter l'acné, la séborrhée, l'hirsutisme, l'alopécie féminine, et dans les situations d'hyperandrogénie comme celles qui sont induites par le syndrome des ovaires polykystiques. Dans le cadre de la transidentité, les anti-androgènes peuvent également faire partie d'un traitement hormonal substitutif ou jouer le rôle d'un bloqueur de puberté, notamment chez les femmes trans.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anti-androg%C3%A8ne</t>
+          <t>Anti-androgène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,23 +527,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chez l'homme
-Traitement du cancer de la prostate
-Hypertrophie bénigne de la prostate
-Le dutastéride et le finastéride, deux inhibiteurs de la 5α-réductase, sont utilisés pour traiter l'hypertrophie bénigne de la prostate, une maladie fréquente chez les hommes âgés entraînant entre autres des troubles de la miction[1]. Ils agissent en empêchant l'enzyme 5-alpha réductase d'effectuer la synthèse de la DHT (androstanolone), une hormone androgène qui stimule la croissance du tissu glandulaire de la prostate[1]. Ils sont parfois combinés avec des médicaments alpha-bloquants, comme la doxazosine, dont l'association avec le finastéride rend le traitement plus efficace que chaque substance prise seule[2].
-Perte de cheveux
-La calvitie masculine étant généralement causée par la présence d'androgènes, notamment de DHT, l'utilisation d'anti-androgènes permet de ralentir ou d'arrêter sa progression[3]. Le dutastéride et le finastéride, des inhibiteurs de la 5α-réductase, sont efficaces lors du traitement de l'alopécie androgénétique[3],[4]. Certains produits cosmétiques topiques à base d'anti-androgènes non stéroïdiens comme le fluridil (topilutamide) sont également utilisés en Europe[3],[5]. Les anti-androgènes plus systémiques que les inhibiteurs de la 5α-réductase ne sont généralement pas employés dans le traitement de la calvitie, les risques de féminisation intempestive ou de dysfonction sexuelle étant trop importants[3],[4]. Cependant, des formulations à base de clascotérone, qui déclencherait beaucoup moins d'effets secondaires et aurait un effet sur la repousse des cheveux comparable au minoxidil, sont à l'étude depuis 2019[6].
-Acné
-Les anti-androgènes ne sont généralement pas utilisés dans le traitement de l'acné chez l'homme, en raison des forts risques de féminisation (gynécomastie notamment[7], même réversible[8]) et de dysfonction sexuelle[9]. Cependant, leur efficacité a été étudiée et confirmée[10],[11]. L'usage de clascotérone, un anti-androgène topique, a été approuvé en août 2020 par la Food and Drug Administration aux États-Unis dans le cadre du traitement de l'acné masculine[12],[13],[14].
-« Castration chimique »
-Puberté précoce
-Les anti-androgènes sont utilisés pour traiter la puberté précoce chez les jeunes garçons[10],[15]. Ils inhibent les effets des androgènes, retardant le développement des caractères sexuels secondaires et les changements liés au désir sexuel jusqu'à un âge approprié[15]. Les molécules les plus utilisées à cet effet sont l'acétate de cyprotérone, l'acétate de médroxyprogestérone, les analogues de la GnRH, la spironolactone, le bicalutamide (en) et le kétoconazole[15],[16],[17],[18]. La spironolactone et le bicalutamide doivent être administrés avec un inhibiteur de l'aromatase pour limiter la féminisation non souhaitée, due à la présence d'œstrogènes, là où les autres traitements peuvent être employés seuls[15],[18].
-Priapisme
-Les anti-androgènes sont efficaces dans le traitement du priapisme récurrent (érections potentiellement douloureuses qui durent plus de quatre heures)[19],[20],[21].
-Chez la femme
-Problèmes de peau et de pilosité
-Hyperandrogénisme
-Hormonosubstitution chez les personnes transgenres</t>
+          <t>Chez l'homme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hypertrophie bénigne de la prostate</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dutastéride et le finastéride, deux inhibiteurs de la 5α-réductase, sont utilisés pour traiter l'hypertrophie bénigne de la prostate, une maladie fréquente chez les hommes âgés entraînant entre autres des troubles de la miction. Ils agissent en empêchant l'enzyme 5-alpha réductase d'effectuer la synthèse de la DHT (androstanolone), une hormone androgène qui stimule la croissance du tissu glandulaire de la prostate. Ils sont parfois combinés avec des médicaments alpha-bloquants, comme la doxazosine, dont l'association avec le finastéride rend le traitement plus efficace que chaque substance prise seule.
+</t>
         </is>
       </c>
     </row>
@@ -541,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anti-androg%C3%A8ne</t>
+          <t>Anti-androgène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +563,176 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chez l'homme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Perte de cheveux</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La calvitie masculine étant généralement causée par la présence d'androgènes, notamment de DHT, l'utilisation d'anti-androgènes permet de ralentir ou d'arrêter sa progression. Le dutastéride et le finastéride, des inhibiteurs de la 5α-réductase, sont efficaces lors du traitement de l'alopécie androgénétique,. Certains produits cosmétiques topiques à base d'anti-androgènes non stéroïdiens comme le fluridil (topilutamide) sont également utilisés en Europe,. Les anti-androgènes plus systémiques que les inhibiteurs de la 5α-réductase ne sont généralement pas employés dans le traitement de la calvitie, les risques de féminisation intempestive ou de dysfonction sexuelle étant trop importants,. Cependant, des formulations à base de clascotérone, qui déclencherait beaucoup moins d'effets secondaires et aurait un effet sur la repousse des cheveux comparable au minoxidil, sont à l'étude depuis 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chez l'homme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Acné</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anti-androgènes ne sont généralement pas utilisés dans le traitement de l'acné chez l'homme, en raison des forts risques de féminisation (gynécomastie notamment, même réversible) et de dysfonction sexuelle. Cependant, leur efficacité a été étudiée et confirmée,. L'usage de clascotérone, un anti-androgène topique, a été approuvé en août 2020 par la Food and Drug Administration aux États-Unis dans le cadre du traitement de l'acné masculine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chez l'homme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Puberté précoce</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anti-androgènes sont utilisés pour traiter la puberté précoce chez les jeunes garçons,. Ils inhibent les effets des androgènes, retardant le développement des caractères sexuels secondaires et les changements liés au désir sexuel jusqu'à un âge approprié. Les molécules les plus utilisées à cet effet sont l'acétate de cyprotérone, l'acétate de médroxyprogestérone, les analogues de la GnRH, la spironolactone, le bicalutamide (en) et le kétoconazole. La spironolactone et le bicalutamide doivent être administrés avec un inhibiteur de l'aromatase pour limiter la féminisation non souhaitée, due à la présence d'œstrogènes, là où les autres traitements peuvent être employés seuls,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chez l'homme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Priapisme</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anti-androgènes sont efficaces dans le traitement du priapisme récurrent (érections potentiellement douloureuses qui durent plus de quatre heures).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Types d'anti-androgènes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains médicaments sont utilisés comme anti-androgènes ou l'ont comme effets secondaires.
 Le flutamide, le nilutamide, le bicalutamide, l'apalutamide et enzalutamide sont classés comme anti-androgènes non stéroïdiens.
@@ -570,136 +743,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anti-androg%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Effets secondaires</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anti-androg%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Interactions</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anti-androg%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Mécanismes d'action</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Antagonistes du récepteur aux androgènes
-Antagonistes de l'extrémité N-terminale
-Dégradants sélectifs du récepteur aux androgènes
-Inhibiteurs de la synthèse des androgènes
-Les inhibiteurs de la synthèse des androgènes sont des inhibiteurs enzymatiques qui empêchent la biosynthèse des androgènes au niveau des gonades et des glandes surrénales, mais également de la prostate, de la peau, ou des follicules pileux[22].
-Inhibiteurs de la 5α-réductase
-Les inhibiteurs de la 5α-réductase tels que le finastéride ou le dutastéride agissent sur la 5-alpha réductase, une enzyme responsable de la production de DHT à partir de la testostérone[23]. La dihydrotestostérone a un effet androgénique entre 2.5 et 10 fois plus puissant que celui de la testostérone[24], et est produite dans différents tissus selon l'expression de la 5α-réductase[25], notamment dans la prostate, la peau et les follicules pileux[25]. Ainsi, la DHT est impliquée dans la physiopathologie de l'hypertrophie bénigne de la prostate, de l'alopécie et de l'hirsutisme, et les inhibiteurs de la 5α-réductase sont utilisés pour traiter ces affections[25],[26].
-Antigonadotrophines
-Divers
-Modulateurs de la SHBG
-Modulateurs de la transcortine (CBG)
-Anticorticolibérines
-Les anti-corticolibérines comme les glucocorticoïdes ou les minéralocorticoïdes exercent un rétrocontrôle négatif sur l'axe hypothalamo-hypophyso-surrénalien, inhibant ainsi la sécrétion de corticolibérine (CRH) et d'hormone corticotrope (ACTH)[27],[28]. Cette inhibition empêche la production de précurseurs aux androgènes (prohormones) comme la déhydroépiandrostérone (DHEA), le sulfate de déhydroépiandrostérone (SDHEA), ou l'androstènedione au niveau de la glande surrénale, d'où leur effet anti-androgénique[27],[28]. Ces molécules sont rarement prescrites en tant qu'anti-androgènes de première intention, mais elles sont utilisés pour traiter l'hyperplasie congénitale des surrénales : dans le cadre de cette maladie, un déficit en glucocorticoïdes entraîne une production excessive d'androgènes[27],[28].
-Traitements antidiabétiques
-Chez les femmes ayant un taux d'insuline circulante plus élevé, comme dans le cas d'une résistance à l'insuline ou d'un syndrome des ovaires polykystiques, l'affinité des androgènes au récepteur des androgènes est augmentée[29]. La metformine, un agent antidiabétique, diminue cette résistance à l'insuline et a un effet anti-androgénique indirect[29],[30], la diminution des taux sériques de testostérone pouvant atteindre 50 %[29].
-Immunogènes et vaccins</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Anti-androg%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Chimie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anti-androg%C3%A8ne</t>
+          <t>Anti-androgène</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -714,14 +764,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Chronologie</t>
-        </is>
-      </c>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -729,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anti-androg%C3%A8ne</t>
+          <t>Anti-androgène</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,10 +792,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Interactions</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -755,7 +805,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anti-androg%C3%A8ne</t>
+          <t>Anti-androgène</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -770,17 +820,200 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Recherches en cours</t>
+          <t>Mécanismes d'action</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Administration topique
-Contraception masculine
-Cancer du sein
-Usages divers</t>
-        </is>
-      </c>
+          <t>Inhibiteurs de la synthèse des androgènes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inhibiteurs de la synthèse des androgènes sont des inhibiteurs enzymatiques qui empêchent la biosynthèse des androgènes au niveau des gonades et des glandes surrénales, mais également de la prostate, de la peau, ou des follicules pileux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mécanismes d'action</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de la synthèse des androgènes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de la 5α-réductase</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inhibiteurs de la 5α-réductase tels que le finastéride ou le dutastéride agissent sur la 5-alpha réductase, une enzyme responsable de la production de DHT à partir de la testostérone. La dihydrotestostérone a un effet androgénique entre 2.5 et 10 fois plus puissant que celui de la testostérone, et est produite dans différents tissus selon l'expression de la 5α-réductase, notamment dans la prostate, la peau et les follicules pileux. Ainsi, la DHT est impliquée dans la physiopathologie de l'hypertrophie bénigne de la prostate, de l'alopécie et de l'hirsutisme, et les inhibiteurs de la 5α-réductase sont utilisés pour traiter ces affections,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mécanismes d'action</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Anticorticolibérines</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anti-corticolibérines comme les glucocorticoïdes ou les minéralocorticoïdes exercent un rétrocontrôle négatif sur l'axe hypothalamo-hypophyso-surrénalien, inhibant ainsi la sécrétion de corticolibérine (CRH) et d'hormone corticotrope (ACTH),. Cette inhibition empêche la production de précurseurs aux androgènes (prohormones) comme la déhydroépiandrostérone (DHEA), le sulfate de déhydroépiandrostérone (SDHEA), ou l'androstènedione au niveau de la glande surrénale, d'où leur effet anti-androgénique,. Ces molécules sont rarement prescrites en tant qu'anti-androgènes de première intention, mais elles sont utilisés pour traiter l'hyperplasie congénitale des surrénales : dans le cadre de cette maladie, un déficit en glucocorticoïdes entraîne une production excessive d'androgènes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mécanismes d'action</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Traitements antidiabétiques</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les femmes ayant un taux d'insuline circulante plus élevé, comme dans le cas d'une résistance à l'insuline ou d'un syndrome des ovaires polykystiques, l'affinité des androgènes au récepteur des androgènes est augmentée. La metformine, un agent antidiabétique, diminue cette résistance à l'insuline et a un effet anti-androgénique indirect la diminution des taux sériques de testostérone pouvant atteindre 50 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anti-androgène</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anti-androg%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
